--- a/Datasets/Frommann/Data/Frommann_5_A_Ospanova.xlsx
+++ b/Datasets/Frommann/Data/Frommann_5_A_Ospanova.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dianaospanova/Desktop/Arbeit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/Akademie_Projekt/Datasets/Frommann/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8A7810-B10E-1045-899F-5B3E15C93085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,31 +727,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P280"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="6.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="53.5" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -801,7 +801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -839,7 +839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -873,7 +873,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -909,7 +909,7 @@
       </c>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -943,7 +943,7 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -985,7 +985,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1263,7 +1263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1487,11 +1487,11 @@
       <c r="N19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O19" s="10" t="s">
+      <c r="O19" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1928,30 +1928,30 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I56" s="4"/>
     </row>
-    <row r="84" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P84" s="5"/>
     </row>
-    <row r="85" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P85" s="5"/>
     </row>
-    <row r="86" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P86" s="5"/>
     </row>
-    <row r="87" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P87" s="5"/>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="280" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P280" s="1"/>
     </row>
   </sheetData>
@@ -1968,9 +1968,9 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="16384" width="10.875" style="8"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1987,18 +1987,18 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
